--- a/sales_app/data/Full Plan workflow.xlsx
+++ b/sales_app/data/Full Plan workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macintoshi/Desktop/Django_unchainded/sales_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776CD629-E8FB-0F4B-B248-058308F1AB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4AD81D-6C20-1F44-AA51-554228F71798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21980" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="Basket_2024" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="Main" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="78">
   <si>
     <t>location</t>
   </si>
@@ -237,12 +238,51 @@
   <si>
     <t xml:space="preserve">პლეხანოვი </t>
   </si>
+  <si>
+    <t>1. GoodWill 2 Kavtaradze</t>
+  </si>
+  <si>
+    <t>2. Galeria</t>
+  </si>
+  <si>
+    <t>3. Gldani</t>
+  </si>
+  <si>
+    <t>4. Pekini</t>
+  </si>
+  <si>
+    <t>5. East Point </t>
+  </si>
+  <si>
+    <t>6. Gldani City Mall</t>
+  </si>
+  <si>
+    <t>7.Agmashenebeli</t>
+  </si>
+  <si>
+    <t>8. Batumi Metro Mall</t>
+  </si>
+  <si>
+    <t>9. Rustavi</t>
+  </si>
+  <si>
+    <t>10. GoodWill</t>
+  </si>
+  <si>
+    <t>11. Vake </t>
+  </si>
+  <si>
+    <t>12. Batumi Grand Mall</t>
+  </si>
+  <si>
+    <t>13. Merani</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +302,22 @@
       <sz val="12"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -440,6 +496,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6329,10 +6388,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650603AD-9288-4A14-8188-833FDDD6C46C}">
-  <dimension ref="A1:G360"/>
+  <dimension ref="A1:G374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="D349" sqref="D349"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14618,6 +14677,244 @@
       </c>
       <c r="G360" s="24">
         <v>59</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>2026</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>62</v>
+      </c>
+      <c r="E361">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>2026</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+      <c r="C362" t="s">
+        <v>2</v>
+      </c>
+      <c r="D362" t="s">
+        <v>55</v>
+      </c>
+      <c r="E362">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>2026</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363" t="s">
+        <v>3</v>
+      </c>
+      <c r="D363" t="s">
+        <v>48</v>
+      </c>
+      <c r="E363">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>2026</v>
+      </c>
+      <c r="B364">
+        <v>2</v>
+      </c>
+      <c r="C364" t="s">
+        <v>4</v>
+      </c>
+      <c r="D364" t="s">
+        <v>63</v>
+      </c>
+      <c r="E364">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>2026</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5</v>
+      </c>
+      <c r="D365" t="s">
+        <v>54</v>
+      </c>
+      <c r="E365">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>2026</v>
+      </c>
+      <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="s">
+        <v>57</v>
+      </c>
+      <c r="E366">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>2026</v>
+      </c>
+      <c r="B367">
+        <v>2</v>
+      </c>
+      <c r="C367" t="s">
+        <v>7</v>
+      </c>
+      <c r="D367" t="s">
+        <v>64</v>
+      </c>
+      <c r="E367">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>2026</v>
+      </c>
+      <c r="B368">
+        <v>2</v>
+      </c>
+      <c r="C368" t="s">
+        <v>8</v>
+      </c>
+      <c r="D368" t="s">
+        <v>58</v>
+      </c>
+      <c r="E368">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>2026</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="C369" t="s">
+        <v>9</v>
+      </c>
+      <c r="D369" t="s">
+        <v>49</v>
+      </c>
+      <c r="E369">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>2026</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+      <c r="C370" t="s">
+        <v>10</v>
+      </c>
+      <c r="D370" t="s">
+        <v>50</v>
+      </c>
+      <c r="E370">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>2026</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="C371" t="s">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s">
+        <v>59</v>
+      </c>
+      <c r="E371">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>2026</v>
+      </c>
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372" t="s">
+        <v>60</v>
+      </c>
+      <c r="E372">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>2026</v>
+      </c>
+      <c r="B373">
+        <v>2</v>
+      </c>
+      <c r="C373" t="s">
+        <v>13</v>
+      </c>
+      <c r="D373" t="s">
+        <v>51</v>
+      </c>
+      <c r="E373">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>2026</v>
+      </c>
+      <c r="B374">
+        <v>2</v>
+      </c>
+      <c r="C374" t="s">
+        <v>14</v>
+      </c>
+      <c r="D374" t="s">
+        <v>53</v>
+      </c>
+      <c r="E374">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
@@ -14798,4 +15095,140 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FCE611-90D9-BD45-9A96-E3469C310DDF}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="28">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="28">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="28">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="28">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="28">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="28">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="28">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="28">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="28">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="28">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="28">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="28">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="28">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="28">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="22" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30">
+        <v>761000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>